--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col4a1-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col4a1-Cd93.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>372.1085406666666</v>
+        <v>421.7027586666666</v>
       </c>
       <c r="H2">
-        <v>1116.325622</v>
+        <v>1265.108276</v>
       </c>
       <c r="I2">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="J2">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>229.5846506666667</v>
+        <v>211.2725676666666</v>
       </c>
       <c r="N2">
-        <v>688.753952</v>
+        <v>633.8177029999999</v>
       </c>
       <c r="O2">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="P2">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="Q2">
-        <v>85430.40931903978</v>
+        <v>89094.22461562332</v>
       </c>
       <c r="R2">
-        <v>768873.6838713581</v>
+        <v>801848.0215406099</v>
       </c>
       <c r="S2">
-        <v>0.4074489560293985</v>
+        <v>0.5205312992840824</v>
       </c>
       <c r="T2">
-        <v>0.4074489560293985</v>
+        <v>0.5205312992840824</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>372.1085406666666</v>
+        <v>421.7027586666666</v>
       </c>
       <c r="H3">
-        <v>1116.325622</v>
+        <v>1265.108276</v>
       </c>
       <c r="I3">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="J3">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>135.7283196666666</v>
+        <v>59.36675400000001</v>
       </c>
       <c r="N3">
-        <v>407.1849589999999</v>
+        <v>178.100262</v>
       </c>
       <c r="O3">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="P3">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="Q3">
-        <v>50505.66695830215</v>
+        <v>25035.12393488537</v>
       </c>
       <c r="R3">
-        <v>454551.0026247193</v>
+        <v>225316.1154139683</v>
       </c>
       <c r="S3">
-        <v>0.2408800500870641</v>
+        <v>0.1462672316391508</v>
       </c>
       <c r="T3">
-        <v>0.2408800500870641</v>
+        <v>0.1462672316391508</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>372.1085406666666</v>
+        <v>421.7027586666666</v>
       </c>
       <c r="H4">
-        <v>1116.325622</v>
+        <v>1265.108276</v>
       </c>
       <c r="I4">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="J4">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5972149999999999</v>
+        <v>0.4593846666666666</v>
       </c>
       <c r="N4">
-        <v>1.791645</v>
+        <v>1.378154</v>
       </c>
       <c r="O4">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="P4">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="Q4">
-        <v>222.2288021142433</v>
+        <v>193.7237812225004</v>
       </c>
       <c r="R4">
-        <v>2000.05921902819</v>
+        <v>1743.514031002504</v>
       </c>
       <c r="S4">
-        <v>0.001059890665898192</v>
+        <v>0.00113182747789794</v>
       </c>
       <c r="T4">
-        <v>0.001059890665898192</v>
+        <v>0.00113182747789794</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>372.1085406666666</v>
+        <v>421.7027586666666</v>
       </c>
       <c r="H5">
-        <v>1116.325622</v>
+        <v>1265.108276</v>
       </c>
       <c r="I5">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="J5">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>90.23148833333333</v>
+        <v>62.94782133333333</v>
       </c>
       <c r="N5">
-        <v>270.694465</v>
+        <v>188.843464</v>
       </c>
       <c r="O5">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="P5">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="Q5">
-        <v>33575.90744589802</v>
+        <v>26545.26990832311</v>
       </c>
       <c r="R5">
-        <v>302183.1670130822</v>
+        <v>238907.429174908</v>
       </c>
       <c r="S5">
-        <v>0.1601358175106145</v>
+        <v>0.1550902305378284</v>
       </c>
       <c r="T5">
-        <v>0.1601358175106145</v>
+        <v>0.1550902305378284</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>209.114842</v>
       </c>
       <c r="I6">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="J6">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>229.5846506666667</v>
+        <v>211.2725676666666</v>
       </c>
       <c r="N6">
-        <v>688.753952</v>
+        <v>633.8177029999999</v>
       </c>
       <c r="O6">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="P6">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="Q6">
-        <v>16003.18598326173</v>
+        <v>14726.7432021831</v>
       </c>
       <c r="R6">
-        <v>144028.6738493556</v>
+        <v>132540.6888196479</v>
       </c>
       <c r="S6">
-        <v>0.07632506356926798</v>
+        <v>0.08604071483115144</v>
       </c>
       <c r="T6">
-        <v>0.07632506356926798</v>
+        <v>0.08604071483115144</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>209.114842</v>
       </c>
       <c r="I7">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="J7">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>135.7283196666666</v>
+        <v>59.36675400000001</v>
       </c>
       <c r="N7">
-        <v>407.1849589999999</v>
+        <v>178.100262</v>
       </c>
       <c r="O7">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="P7">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="Q7">
-        <v>9460.935374006829</v>
+        <v>4138.156460920956</v>
       </c>
       <c r="R7">
-        <v>85148.41836606147</v>
+        <v>37243.40814828861</v>
       </c>
       <c r="S7">
-        <v>0.04512267086073252</v>
+        <v>0.02417709978999334</v>
       </c>
       <c r="T7">
-        <v>0.04512267086073252</v>
+        <v>0.02417709978999334</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>209.114842</v>
       </c>
       <c r="I8">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="J8">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5972149999999999</v>
+        <v>0.4593846666666666</v>
       </c>
       <c r="N8">
-        <v>1.791645</v>
+        <v>1.378154</v>
       </c>
       <c r="O8">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="P8">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="Q8">
-        <v>41.62884012167667</v>
+        <v>32.02138399574088</v>
       </c>
       <c r="R8">
-        <v>374.65956109509</v>
+        <v>288.192455961668</v>
       </c>
       <c r="S8">
-        <v>0.0001985432070792113</v>
+        <v>0.0001870843221105339</v>
       </c>
       <c r="T8">
-        <v>0.0001985432070792113</v>
+        <v>0.0001870843221105339</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>209.114842</v>
       </c>
       <c r="I9">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="J9">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>90.23148833333333</v>
+        <v>62.94782133333333</v>
       </c>
       <c r="N9">
-        <v>270.694465</v>
+        <v>188.843464</v>
       </c>
       <c r="O9">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="P9">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="Q9">
-        <v>6289.581142083282</v>
+        <v>4387.774570788077</v>
       </c>
       <c r="R9">
-        <v>56606.23027874953</v>
+        <v>39489.97113709269</v>
       </c>
       <c r="S9">
-        <v>0.02999731934601515</v>
+        <v>0.02563548881144271</v>
       </c>
       <c r="T9">
-        <v>0.02999731934601514</v>
+        <v>0.0256354888114427</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.387356</v>
+        <v>1.088159666666667</v>
       </c>
       <c r="H10">
-        <v>1.162068</v>
+        <v>3.264479</v>
       </c>
       <c r="I10">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="J10">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>229.5846506666667</v>
+        <v>211.2725676666666</v>
       </c>
       <c r="N10">
-        <v>688.753952</v>
+        <v>633.8177029999999</v>
       </c>
       <c r="O10">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="P10">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="Q10">
-        <v>88.93099194363734</v>
+        <v>229.8982868079707</v>
       </c>
       <c r="R10">
-        <v>800.3789274927359</v>
+        <v>2069.084581271737</v>
       </c>
       <c r="S10">
-        <v>0.0004241445185024796</v>
+        <v>0.001343176333276633</v>
       </c>
       <c r="T10">
-        <v>0.0004241445185024796</v>
+        <v>0.001343176333276633</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.387356</v>
+        <v>1.088159666666667</v>
       </c>
       <c r="H11">
-        <v>1.162068</v>
+        <v>3.264479</v>
       </c>
       <c r="I11">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="J11">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>135.7283196666666</v>
+        <v>59.36675400000001</v>
       </c>
       <c r="N11">
-        <v>407.1849589999999</v>
+        <v>178.100262</v>
       </c>
       <c r="O11">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="P11">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="Q11">
-        <v>52.57517899280132</v>
+        <v>64.60050724372201</v>
       </c>
       <c r="R11">
-        <v>473.1766109352119</v>
+        <v>581.4045651934981</v>
       </c>
       <c r="S11">
-        <v>0.0002507503120308874</v>
+        <v>0.0003774272251098163</v>
       </c>
       <c r="T11">
-        <v>0.0002507503120308874</v>
+        <v>0.0003774272251098163</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.387356</v>
+        <v>1.088159666666667</v>
       </c>
       <c r="H12">
-        <v>1.162068</v>
+        <v>3.264479</v>
       </c>
       <c r="I12">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="J12">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5972149999999999</v>
+        <v>0.4593846666666666</v>
       </c>
       <c r="N12">
-        <v>1.791645</v>
+        <v>1.378154</v>
       </c>
       <c r="O12">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="P12">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="Q12">
-        <v>0.23133481354</v>
+        <v>0.4998838657517777</v>
       </c>
       <c r="R12">
-        <v>2.08201332186</v>
+        <v>4.498954791766</v>
       </c>
       <c r="S12">
-        <v>1.103320574271456E-06</v>
+        <v>2.920561902340119E-06</v>
       </c>
       <c r="T12">
-        <v>1.103320574271456E-06</v>
+        <v>2.920561902340119E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.387356</v>
+        <v>1.088159666666667</v>
       </c>
       <c r="H13">
-        <v>1.162068</v>
+        <v>3.264479</v>
       </c>
       <c r="I13">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="J13">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>90.23148833333333</v>
+        <v>62.94782133333333</v>
       </c>
       <c r="N13">
-        <v>270.694465</v>
+        <v>188.843464</v>
       </c>
       <c r="O13">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="P13">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="Q13">
-        <v>34.95170839484666</v>
+        <v>68.49728027947289</v>
       </c>
       <c r="R13">
-        <v>314.56537555362</v>
+        <v>616.475522515256</v>
       </c>
       <c r="S13">
-        <v>0.0001666975168495459</v>
+        <v>0.0004001940468658349</v>
       </c>
       <c r="T13">
-        <v>0.0001666975168495459</v>
+        <v>0.0004001940468658349</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.03711166666666</v>
+        <v>19.43698366666667</v>
       </c>
       <c r="H14">
-        <v>51.111335</v>
+        <v>58.310951</v>
       </c>
       <c r="I14">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="J14">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>229.5846506666667</v>
+        <v>211.2725676666666</v>
       </c>
       <c r="N14">
-        <v>688.753952</v>
+        <v>633.8177029999999</v>
       </c>
       <c r="O14">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="P14">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="Q14">
-        <v>3911.459330360658</v>
+        <v>4106.501446951727</v>
       </c>
       <c r="R14">
-        <v>35203.13397324592</v>
+        <v>36958.51302256555</v>
       </c>
       <c r="S14">
-        <v>0.01865518418336443</v>
+        <v>0.02399215597773899</v>
       </c>
       <c r="T14">
-        <v>0.01865518418336443</v>
+        <v>0.02399215597773899</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.03711166666666</v>
+        <v>19.43698366666667</v>
       </c>
       <c r="H15">
-        <v>51.111335</v>
+        <v>58.310951</v>
       </c>
       <c r="I15">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="J15">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>135.7283196666666</v>
+        <v>59.36675400000001</v>
       </c>
       <c r="N15">
-        <v>407.1849589999999</v>
+        <v>178.100262</v>
       </c>
       <c r="O15">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="P15">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="Q15">
-        <v>2312.418538490029</v>
+        <v>1153.910627841018</v>
       </c>
       <c r="R15">
-        <v>20811.76684641026</v>
+        <v>10385.19565056916</v>
       </c>
       <c r="S15">
-        <v>0.0110287721540953</v>
+        <v>0.00674170072144574</v>
       </c>
       <c r="T15">
-        <v>0.0110287721540953</v>
+        <v>0.006741700721445739</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.03711166666666</v>
+        <v>19.43698366666667</v>
       </c>
       <c r="H16">
-        <v>51.111335</v>
+        <v>58.310951</v>
       </c>
       <c r="I16">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="J16">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5972149999999999</v>
+        <v>0.4593846666666666</v>
       </c>
       <c r="N16">
-        <v>1.791645</v>
+        <v>1.378154</v>
       </c>
       <c r="O16">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="P16">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="Q16">
-        <v>10.17481864400833</v>
+        <v>8.929052262717111</v>
       </c>
       <c r="R16">
-        <v>91.57336779607499</v>
+        <v>80.36147036445399</v>
       </c>
       <c r="S16">
-        <v>4.852744201198276E-05</v>
+        <v>5.21678166653305E-05</v>
       </c>
       <c r="T16">
-        <v>4.852744201198276E-05</v>
+        <v>5.21678166653305E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.03711166666666</v>
+        <v>19.43698366666667</v>
       </c>
       <c r="H17">
-        <v>51.111335</v>
+        <v>58.310951</v>
       </c>
       <c r="I17">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="J17">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>90.23148833333333</v>
+        <v>62.94782133333333</v>
       </c>
       <c r="N17">
-        <v>270.694465</v>
+        <v>188.843464</v>
       </c>
       <c r="O17">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="P17">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="Q17">
-        <v>1537.28394258453</v>
+        <v>1223.515775108252</v>
       </c>
       <c r="R17">
-        <v>13835.55548326077</v>
+        <v>11011.64197597426</v>
       </c>
       <c r="S17">
-        <v>0.007331870963975674</v>
+        <v>0.007148367459948556</v>
       </c>
       <c r="T17">
-        <v>0.007331870963975673</v>
+        <v>0.007148367459948555</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.425022</v>
+        <v>0.451366</v>
       </c>
       <c r="H18">
-        <v>1.275066</v>
+        <v>1.354098</v>
       </c>
       <c r="I18">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="J18">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>229.5846506666667</v>
+        <v>211.2725676666666</v>
       </c>
       <c r="N18">
-        <v>688.753952</v>
+        <v>633.8177029999999</v>
       </c>
       <c r="O18">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="P18">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="Q18">
-        <v>97.57852739564801</v>
+        <v>95.36125377743265</v>
       </c>
       <c r="R18">
-        <v>878.206746560832</v>
+        <v>858.2512839968939</v>
       </c>
       <c r="S18">
-        <v>0.0004653877867980899</v>
+        <v>0.0005571462970162227</v>
       </c>
       <c r="T18">
-        <v>0.0004653877867980899</v>
+        <v>0.0005571462970162227</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.425022</v>
+        <v>0.451366</v>
       </c>
       <c r="H19">
-        <v>1.275066</v>
+        <v>1.354098</v>
       </c>
       <c r="I19">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="J19">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>135.7283196666666</v>
+        <v>59.36675400000001</v>
       </c>
       <c r="N19">
-        <v>407.1849589999999</v>
+        <v>178.100262</v>
       </c>
       <c r="O19">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="P19">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="Q19">
-        <v>57.68752188136599</v>
+        <v>26.796134285964</v>
       </c>
       <c r="R19">
-        <v>519.1876969322939</v>
+        <v>241.165208573676</v>
       </c>
       <c r="S19">
-        <v>0.0002751329503608872</v>
+        <v>0.0001565559008548537</v>
       </c>
       <c r="T19">
-        <v>0.0002751329503608872</v>
+        <v>0.0001565559008548537</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.425022</v>
+        <v>0.451366</v>
       </c>
       <c r="H20">
-        <v>1.275066</v>
+        <v>1.354098</v>
       </c>
       <c r="I20">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="J20">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.5972149999999999</v>
+        <v>0.4593846666666666</v>
       </c>
       <c r="N20">
-        <v>1.791645</v>
+        <v>1.378154</v>
       </c>
       <c r="O20">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="P20">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="Q20">
-        <v>0.25382951373</v>
+        <v>0.2073506194546666</v>
       </c>
       <c r="R20">
-        <v>2.28446562357</v>
+        <v>1.866155575092</v>
       </c>
       <c r="S20">
-        <v>1.210606050036666E-06</v>
+        <v>1.211442019028136E-06</v>
       </c>
       <c r="T20">
-        <v>1.210606050036666E-06</v>
+        <v>1.211442019028136E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.425022</v>
+        <v>0.451366</v>
       </c>
       <c r="H21">
-        <v>1.275066</v>
+        <v>1.354098</v>
       </c>
       <c r="I21">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="J21">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>90.23148833333333</v>
+        <v>62.94782133333333</v>
       </c>
       <c r="N21">
-        <v>270.694465</v>
+        <v>188.843464</v>
       </c>
       <c r="O21">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="P21">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="Q21">
-        <v>38.35036763441</v>
+        <v>28.41250632394133</v>
       </c>
       <c r="R21">
-        <v>345.15330870969</v>
+        <v>255.712556915472</v>
       </c>
       <c r="S21">
-        <v>0.0001829069693161529</v>
+        <v>0.0001659995234991352</v>
       </c>
       <c r="T21">
-        <v>0.0001829069693161528</v>
+        <v>0.0001659995234991352</v>
       </c>
     </row>
   </sheetData>
